--- a/자료/로봇 부품 리스트/로봇 전자 회로 리스트.xlsx
+++ b/자료/로봇 부품 리스트/로봇 전자 회로 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교 과제\졸업과제\자료\로봇 부품 리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F89605-8346-4473-90B9-E00CB5DCE4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7D9B8-1527-4021-8028-B59978FA8210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3150" windowWidth="20730" windowHeight="11160" xr2:uid="{7EF45D0E-3BF1-41D6-9179-ABE65E16183B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2028684428&amp;cls=4044&amp;trTypeCd=104</t>
   </si>
@@ -438,6 +438,20 @@
   </si>
   <si>
     <t>http://www.devicemart.co.kr/goods/view?no=1361127</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1323271899&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>40p 암암 점퍼선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2579440230&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001362&amp;mCtgrNo=1002187</t>
+  </si>
+  <si>
+    <t>40p 수수 점퍼선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -860,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D8391F-D3A2-4C37-8D36-3FEBDB840265}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1323,18 +1337,40 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>1100</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="6">
@@ -1355,7 +1391,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <f>SUM(D2:D29)</f>
-        <v>189180</v>
+        <v>191980</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1485,9 +1521,11 @@
     <hyperlink ref="E9" r:id="rId22" xr:uid="{EB996574-FED5-41F8-B830-CE017EA4CD93}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{F999603C-F6C2-453B-AB81-13969200D81C}"/>
     <hyperlink ref="E25" r:id="rId24" xr:uid="{8DF46A77-8B18-4B57-8406-B37D48CB0CA5}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{5E46F3A9-CEB3-44D7-9F14-A9026E4598EC}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{E3AD6AF0-F552-4CE8-BE4F-5AC01177FD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/자료/로봇 부품 리스트/로봇 전자 회로 리스트.xlsx
+++ b/자료/로봇 부품 리스트/로봇 전자 회로 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교 과제\졸업과제\자료\로봇 부품 리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7D9B8-1527-4021-8028-B59978FA8210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D0D5F-805C-49DB-8170-31D5D6BAF804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="3150" windowWidth="20730" windowHeight="11160" xr2:uid="{7EF45D0E-3BF1-41D6-9179-ABE65E16183B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7EF45D0E-3BF1-41D6-9179-ABE65E16183B}"/>
   </bookViews>
   <sheets>
     <sheet name="부품 리스트" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2028684428&amp;cls=4044&amp;trTypeCd=104</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>GPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1971016464&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,20 +144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EPS32-CAM 부트로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gps 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2430498106&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001445&amp;mCtgrNo=1002991</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1083695812&amp;catalog_no=15363553&amp;lowest_yn=Y&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2735413982&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
   </si>
   <si>
@@ -171,294 +155,336 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>만능기판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2351282940&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001423&amp;mCtgrNo=1002669</t>
+  </si>
+  <si>
+    <t>연결 컨네터 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2x1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터드라이브-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸시 버튼-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고도 센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 5v +- , 배터리 12v +-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RX,TX </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2핀-2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4핀-2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어오는 핀들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가는 핀들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 핀 4개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN-2구 커넥터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT-커넥터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gps </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1658810159&amp;catalog_no=15486443&amp;lowest_yn=Y&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리파이 제로 W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2140438330&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
+  </si>
+  <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1332566113&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1346026</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2672881929&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001445&amp;mCtgrNo=1002991</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFC cable 0.5피치 24핀 150mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1331119</t>
-  </si>
-  <si>
-    <t>FFC cable 0.5피치 24핀 연장 젠더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1341681</t>
-  </si>
-  <si>
-    <t>FFC cable 1피치 24핀 연장 젠더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFC cable 1피치 24핀 150mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=12520353</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1341705</t>
-  </si>
-  <si>
-    <t>베터리 18650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2154149383&amp;trTypeCd=19&amp;trCtgrNo=585021&amp;lCtgrNo=1001426&amp;mCtgrNo=1002700</t>
-  </si>
-  <si>
-    <t>베터리 12/A23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베터리 12/A23 홀더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://item.gmarket.co.kr/Item?goodscode=1187596309</t>
-  </si>
-  <si>
-    <t>http://item.gmarket.co.kr/Item?goodscode=743977960</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2644102314&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>베터리 18650 홀더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>수축 튜브-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Φ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8mm)파이 X 3M / 검정</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2411614506</t>
-  </si>
-  <si>
-    <t>http://item.gmarket.co.kr/Item?goodscode=1527030672</t>
-  </si>
-  <si>
-    <t>http://item.gmarket.co.kr/Item?goodscode=1533798447</t>
-  </si>
-  <si>
-    <t>만능기판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2351282940&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001423&amp;mCtgrNo=1002669</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=12147971</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결 컨네터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2x1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2756834755&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
-  </si>
-  <si>
-    <t>3층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라이드 스위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모터드라이브-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸시 버튼-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고도 센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배터리 5v +- , 배터리 12v +-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RX,TX </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2핀-2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4핀-2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>들어오는 핀들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나가는 핀들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 핀 4개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN-2구 커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT-커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커넥터 팩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1358437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">led </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gps </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">바퀴모터 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지름모터 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이파이 안테나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고도 센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1361127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 프로미니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2772449072&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
+  </si>
+  <si>
+    <t>http://deal.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=709177597&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001443&amp;mCtgrNo=1002970#ui_option_layer1</t>
+  </si>
+  <si>
+    <t>모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2705294468&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
+  </si>
+  <si>
+    <t>led-옵션 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1768403646&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
+  </si>
+  <si>
+    <t>리튬이온 배터리 충전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 리튬이온 배터리-옵션 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFC cable 0.5피치 22핀 연장 보드</t>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1341680</t>
+  </si>
+  <si>
+    <t>FFC cable 0.5mm 22pin 60mm A type</t>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1331099</t>
+  </si>
+  <si>
+    <t>라즈베리 파이 제로 V1.3 / W 5MP 미니 카메라 모듈</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2280182237&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>아두이노 다운로더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2772448138&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>미니5핀 usb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1854201480&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1346712617&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>자이로센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2514478265&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>로직 ic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1521201973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2623447345&amp;param=trTypeCd=104</t>
+  </si>
+  <si>
+    <t>DCDC직류 가변 정전압 컨버터</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1204597787&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>전원 승압 케이블</t>
+  </si>
+  <si>
+    <t>18650 리튬 배터리 충방전 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티테스터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=634671353&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2656261569&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>점퍼선 - 옵션 1, 2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=724744988&amp;trTypeCd=21&amp;trCtgrNo=585021#ui_option_layer1</t>
+  </si>
+  <si>
+    <t>서페이서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2260967837&amp;catalog_no=21459242&amp;lowest_yn=Y&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>마스킹테이프 15mmx3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=98225175&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>락카 - 흰색, 검정, 진녹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1492672371&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>순간접착제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1567879314&amp;trTypeCd=19&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>볼트 너트 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=335315745&amp;trTypeCd=PW53&amp;trCtgrNo=585021#ui_option_layer1</t>
+  </si>
+  <si>
+    <t>쇠구글 16mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2654942436&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1323271899&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>40p 암암 점퍼선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2579440230&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001362&amp;mCtgrNo=1002187</t>
-  </si>
-  <si>
-    <t>40p 수수 점퍼선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2826554565&amp;trTypeCd=20&amp;trCtgrNo=585021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2101955517&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>pcv 필름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2454092366&amp;trTypeCd=PW00&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>열선커터기 선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크릴판 2t 500x500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2405128033&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,29 +508,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,13 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -556,6 +553,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D8391F-D3A2-4C37-8D36-3FEBDB840265}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,408 +883,475 @@
     <col min="1" max="1" width="32.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="176.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="191.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2">
-        <v>9900</v>
-      </c>
-      <c r="C2" s="6">
+        <v>29710</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="4">
+        <f>B2*C2+D2</f>
+        <v>32210</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E32" si="0">B3*C3+D3</f>
+        <v>3800</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2">
+        <v>450</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>23500</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4250</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
-        <f>B2*C2</f>
-        <v>19800</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15500</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D27" si="0">B3*C3</f>
-        <v>31000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4570</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>11640</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4060</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>6560</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9400</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2700</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>12100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2">
+        <v>650</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>5300</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2">
-        <v>8260</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>8260</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17700</v>
-      </c>
-      <c r="C5" s="2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5840</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>20020</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6260</v>
+      </c>
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>35400</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="D18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>15020</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2700</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5880</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>8380</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1450</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="2">
-        <v>6270</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>6270</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1560</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>6240</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10780</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>10780</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="2">
-        <v>3600</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6200</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>12400</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4500</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3340</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>3340</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2">
-        <v>450</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2">
-        <v>490</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2">
-        <v>650</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1750</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5300</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>5300</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1230</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>1230</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
         <v>890</v>
@@ -1292,240 +1359,570 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>2670</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>5170</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2">
-        <v>9300</v>
+        <v>3400</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>9300</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>6100</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2250</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="2">
+        <v>900</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8910</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>11910</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="2">
-        <v>1100</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B33" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33:E42" si="1">B33*C33+D33</f>
+        <v>10800</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>6100</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="2">
-        <v>1700</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="6">
-        <f>B28*C27</f>
+      <c r="B35" s="2">
+        <v>700</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <f>B29*C28</f>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>9500</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <f>SUM(D2:D29)</f>
-        <v>191980</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="2"/>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="4">
+        <f>SUM(D2:D42)</f>
+        <v>82000</v>
+      </c>
+      <c r="E43" s="4">
+        <f>SUM(E2:E42)</f>
+        <v>313960</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="2"/>
       <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="5"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D47" s="5"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="5"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="5"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="5"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D52" s="5"/>
-      <c r="E52" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="4"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="2"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="2"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="2"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="2"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="2"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="2"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="2"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="2"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="2"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2C1B6A2D-43DC-4CF6-9FFE-16610F819683}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{93D079E2-01F3-4167-9B8D-F35F017FF596}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{8941688E-7264-468D-B666-E01DFB475D3F}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{E654F217-EAF0-4A40-AE04-7144E407A98A}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{3378DA65-55CC-4CA1-A421-59D42E88982A}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{2AC34E61-7383-47CE-A5C0-5A8E407AE0EF}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{B3D6798F-384F-4571-9C56-9F9A74B86FDF}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{820A8FC1-6F75-46C9-83E7-BB6329078A6D}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{4061DFAD-8799-4574-A2F9-E4D6DC1ACA74}"/>
-    <hyperlink ref="E18" r:id="rId10" xr:uid="{C4170A44-1C73-4B10-A3F5-9DF671A1E4BA}"/>
-    <hyperlink ref="E21" r:id="rId11" xr:uid="{7F6A2FED-8D7A-42A0-9C9A-1739D22EEF16}"/>
-    <hyperlink ref="E20" r:id="rId12" xr:uid="{62278C2F-FD9B-434B-AB2D-9E70189DA37E}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{C630DD9E-81AC-4289-AFE4-5BFD84655767}"/>
-    <hyperlink ref="E12" r:id="rId14" xr:uid="{AB0B16D2-2139-4A56-BE5D-36FB9547AB90}"/>
-    <hyperlink ref="E15" r:id="rId15" xr:uid="{117F0CBE-CCB9-4DC6-8915-724BA5FF367D}"/>
-    <hyperlink ref="E13" r:id="rId16" xr:uid="{BF482B61-3113-4E44-B2C9-0F5DE00CBE19}"/>
-    <hyperlink ref="E14" r:id="rId17" xr:uid="{999D1E62-9140-4D91-8089-09D51E48614E}"/>
-    <hyperlink ref="E22" r:id="rId18" xr:uid="{1B8BEFC3-D6D7-468E-A14B-720F9110258E}"/>
-    <hyperlink ref="E5" r:id="rId19" xr:uid="{1B21E9DB-B6B4-426E-98B7-72A7B7C6E810}"/>
-    <hyperlink ref="E6" r:id="rId20" xr:uid="{E60C2E7A-C95D-4479-9E78-3E6E56E1F6BA}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{0FCD72D9-5453-44CA-BE20-4894773BFFEF}"/>
-    <hyperlink ref="E9" r:id="rId22" xr:uid="{EB996574-FED5-41F8-B830-CE017EA4CD93}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{F999603C-F6C2-453B-AB81-13969200D81C}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{8DF46A77-8B18-4B57-8406-B37D48CB0CA5}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{5E46F3A9-CEB3-44D7-9F14-A9026E4598EC}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{E3AD6AF0-F552-4CE8-BE4F-5AC01177FD4A}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C4C1A6DD-FDA4-458E-88F2-C5FEED647DEC}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{0045D1DE-0961-4626-9E75-9360EF2FFDAC}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A9DD9EBC-095E-4DBA-8D9F-C4E68CEB34D4}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{5368AF54-5A2A-4813-AF33-39F581907125}"/>
+    <hyperlink ref="F6" r:id="rId5" location="ui_option_layer1" display="http://deal.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=709177597&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001443&amp;mCtgrNo=1002970 - ui_option_layer1" xr:uid="{FAB4F1EA-38A9-4382-87F4-54C644F62834}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{1A8013FA-D3CD-416D-983B-D7EE7F51EC2F}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{970C1286-C7B1-4523-8B63-2D6F5B40071A}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{69B0CA0C-657D-4629-9D2A-DAD20D61AEF2}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{D20A736A-F48C-41DA-BF5B-C1B4795A751A}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{F58A948C-DEE3-46C2-8BA7-75E52DF377BB}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{9D4A945A-7412-48FD-BC21-3882328C5637}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{CD036C0D-030A-45F2-A74B-D338A6C5506B}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{4B2F0AC8-32E0-4B48-AF04-8AF83D5A8ADC}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{7C4420B0-A83A-43C0-A10B-444B75905984}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{0199B585-7200-4A7C-BEE7-8536E5BFACEB}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{3672076F-5326-4445-A08F-09BA3D92F22D}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{4025D013-744F-49A0-AE24-444894650536}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{C35A0EAD-D579-48A4-8233-2D88F964C8C2}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{1F8107FF-AB75-455F-9A13-D45FAF72F192}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{857D7635-8EA7-4FF9-AC73-D5A9E32BEDCD}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{E9AA865D-B2C5-458C-9B31-131B70C34242}"/>
+    <hyperlink ref="F20" r:id="rId22" xr:uid="{1B65EE58-D08A-46C1-9C71-1F3FE48010DF}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{A76CD9C4-2728-4806-BAE1-36D1D8C63675}"/>
+    <hyperlink ref="F25" r:id="rId24" location="ui_option_layer1" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=724744988&amp;trTypeCd=21&amp;trCtgrNo=585021 - ui_option_layer1" xr:uid="{40935013-A89B-45FB-8DEE-1F2540E70280}"/>
+    <hyperlink ref="F33" r:id="rId25" xr:uid="{5B677754-AD28-44E6-A774-E73184EA88E7}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{C5A75D97-7864-4BEE-879F-939934BE9FD6}"/>
+    <hyperlink ref="F34" r:id="rId27" xr:uid="{9650D1FA-FF35-41B2-9B01-250AD86589FC}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{14144E54-F219-4C6D-A7BF-B6925B63082E}"/>
+    <hyperlink ref="F37" r:id="rId29" xr:uid="{80118694-864E-457F-A7DD-E98E4458DE0D}"/>
+    <hyperlink ref="F39" r:id="rId30" location="ui_option_layer1" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=335315745&amp;trTypeCd=PW53&amp;trCtgrNo=585021 - ui_option_layer1" xr:uid="{1535CBE2-5594-45EB-B429-FB5A5B222A16}"/>
+    <hyperlink ref="F29" r:id="rId31" xr:uid="{20F318CF-0D9E-48C1-9B46-F8CF3A657C85}"/>
+    <hyperlink ref="F30" r:id="rId32" xr:uid="{154CF7C5-DAD1-4C79-84DB-235F87CCFE23}"/>
+    <hyperlink ref="F31" r:id="rId33" xr:uid="{5C8ABD6D-A3B0-4447-A95C-24D40AA9DCA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -1546,22 +1943,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1570,7 +1967,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1579,20 +1976,20 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1601,54 +1998,54 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -1656,12 +2053,12 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1673,13 +2070,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1687,7 +2084,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1695,13 +2092,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -1710,7 +2107,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1719,7 +2116,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1730,7 +2127,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1743,7 +2140,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1754,7 +2151,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -1767,10 +2164,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1779,44 +2176,44 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1856,19 +2253,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1877,17 +2274,17 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1896,17 +2293,17 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1915,7 +2312,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1930,7 +2327,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1956,19 +2353,19 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1977,15 +2374,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1993,7 +2390,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2007,7 +2404,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2022,7 +2419,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2056,7 +2453,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2069,7 +2466,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -2083,7 +2480,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>

--- a/자료/로봇 부품 리스트/로봇 전자 회로 리스트.xlsx
+++ b/자료/로봇 부품 리스트/로봇 전자 회로 리스트.xlsx
@@ -1,62 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교 과제\졸업과제\자료\로봇 부품 리스트\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D0D5F-805C-49DB-8170-31D5D6BAF804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.101.23.39576"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7EF45D0E-3BF1-41D6-9179-ABE65E16183B}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="부품 리스트" sheetId="1" r:id="rId1"/>
     <sheet name="부품 정리" sheetId="2" r:id="rId2"/>
     <sheet name="만능기판 레이어" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>GPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">이름 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">하드웨어 </t>
@@ -117,176 +95,135 @@
   </si>
   <si>
     <t>ESP32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용 핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>통신방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ESP32-CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sd card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gps 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2735413982&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
   </si>
   <si>
     <t>모터드라이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>만능기판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2351282940&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001423&amp;mCtgrNo=1002669</t>
   </si>
   <si>
     <t>연결 컨네터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2x1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>슬라이드 스위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모터드라이브-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>푸시 버튼-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고도 센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배터리 5v +- , 배터리 12v +-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RX,TX </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2핀-2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4핀-2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>들어오는 핀들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나가는 핀들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총 핀 4개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IN-2구 커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OUT-커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">gps </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1658810159&amp;catalog_no=15486443&amp;lowest_yn=Y&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>라즈베리파이 제로 W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2140438330&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1332566113&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아두이노 프로미니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2772449072&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
@@ -296,25 +233,18 @@
   </si>
   <si>
     <t>모터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2705294468&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
   </si>
   <si>
     <t>led-옵션 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1768403646&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
   </si>
   <si>
-    <t>리튬이온 배터리 충전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삼성 리튬이온 배터리-옵션 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFC cable 0.5피치 22핀 연장 보드</t>
@@ -336,35 +266,21 @@
   </si>
   <si>
     <t>아두이노 다운로더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2772448138&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
   </si>
   <si>
-    <t>미니5핀 usb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1854201480&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1346712617&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>자이로센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2514478265&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>로직 ic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1521201973</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2623447345&amp;param=trTypeCd=104</t>
@@ -380,15 +296,12 @@
   </si>
   <si>
     <t>18650 리튬 배터리 충방전 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배송비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>멀티테스터기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=634671353&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
@@ -398,127 +311,554 @@
   </si>
   <si>
     <t>점퍼선 - 옵션 1, 2, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=724744988&amp;trTypeCd=21&amp;trCtgrNo=585021#ui_option_layer1</t>
   </si>
   <si>
     <t>서페이서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2260967837&amp;catalog_no=21459242&amp;lowest_yn=Y&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>마스킹테이프 15mmx3M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=98225175&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>락카 - 흰색, 검정, 진녹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1492672371&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>순간접착제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1567879314&amp;trTypeCd=19&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>볼트 너트 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=335315745&amp;trTypeCd=PW53&amp;trCtgrNo=585021#ui_option_layer1</t>
   </si>
   <si>
     <t>쇠구글 16mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2654942436&amp;trTypeCd=21&amp;trCtgrNo=585021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1323271899&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2826554565&amp;trTypeCd=20&amp;trCtgrNo=585021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2101955517&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>pcv 필름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2454092366&amp;trTypeCd=PW00&amp;trCtgrNo=585021</t>
   </si>
   <si>
     <t>열선커터기 선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아크릴판 2t 500x500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2405128033&amp;trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=276477652&amp;trTypeCd=19&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>종이사포 120, 180, 800방</t>
+  </si>
+  <si>
+    <t>헤드 포함</t>
+  </si>
+  <si>
+    <t>0.5피치 22핀</t>
+  </si>
+  <si>
+    <t>FFC cable 연장 보드</t>
+  </si>
+  <si>
+    <t>0.5mm 22pin 60mm A type</t>
+  </si>
+  <si>
+    <t>FFC cable</t>
+  </si>
+  <si>
+    <t>5MP</t>
+  </si>
+  <si>
+    <t>라즈베리 파이 제로 미니 카메라 모듈</t>
+  </si>
+  <si>
+    <t>8gb</t>
+  </si>
+  <si>
+    <t>5v to 3.3</t>
+  </si>
+  <si>
+    <t>5v 16M</t>
+  </si>
+  <si>
+    <t>Te518비행제어</t>
+  </si>
+  <si>
+    <t>te518 비행제어 모듈</t>
+  </si>
+  <si>
+    <t>bmp180</t>
+  </si>
+  <si>
+    <t>mpu 6050</t>
+  </si>
+  <si>
+    <t>rgb 3색</t>
+  </si>
+  <si>
+    <t>tb6612fng</t>
+  </si>
+  <si>
+    <t>12v 3.3kgf</t>
+  </si>
+  <si>
+    <t>3500mh</t>
+  </si>
+  <si>
+    <t>3.3v to 5v</t>
+  </si>
+  <si>
+    <t>5v to 12v</t>
+  </si>
+  <si>
+    <t>tp4056</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a830</t>
+  </si>
+  <si>
+    <t>60mmx80mm</t>
+  </si>
+  <si>
+    <t>옵션 1, 2, 3</t>
+  </si>
+  <si>
+    <t>점퍼선</t>
+  </si>
+  <si>
+    <t>옵션 1</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>2t 500x500</t>
+  </si>
+  <si>
+    <t>아크릴판</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쇠구글 </t>
+  </si>
+  <si>
+    <t>120, 180, 800방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">종이사포 </t>
+  </si>
+  <si>
+    <t>15mmx3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마스킹테이프 </t>
+  </si>
+  <si>
+    <t>흰색, 검정, 진녹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">락카 </t>
+  </si>
+  <si>
+    <t>MR.WHITE SURF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="65" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <name val="&amp;quot"/>
+      <color rgb="FF111111"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF111111"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -526,16 +866,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,21 +1145,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="4" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="2" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="3" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -871,1077 +1508,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D8391F-D3A2-4C37-8D36-3FEBDB840265}">
-  <dimension ref="A1:F99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="191.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="34.38000107" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="26.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="2" width="7.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="10.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="11.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="7.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="184.63000488" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2">
         <v>29710</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="4">
+        <f>C2*D2+E2</f>
+        <v>61920</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E3" s="2">
         <v>2500</v>
       </c>
-      <c r="E2" s="4">
-        <f>B2*C2+D2</f>
-        <v>32210</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="4">
+        <f>C3*D3+E3</f>
+        <v>3800</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E4" s="2">
         <v>2500</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E32" si="0">B3*C3+D3</f>
-        <v>3800</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="4">
+        <f>C4*D4+E4</f>
+        <v>2950</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2">
-        <v>450</v>
-      </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21000</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>2500</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>2950</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F5" s="4">
+        <f>C5*D5+E5</f>
+        <v>23500</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="2">
-        <v>21000</v>
-      </c>
-      <c r="C5" s="2">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4250</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>C6*D6+E6</f>
+        <v>8500</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F7" s="4">
+        <f>C7*D7+E7</f>
+        <v>4900</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4570</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C8*D8+E8</f>
+        <v>11640</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2">
+        <v>4060</v>
+      </c>
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E9" s="2">
         <v>2500</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>23500</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4250</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="F9" s="4">
+        <f>C9*D9+E9</f>
+        <v>6560</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C10*D10+E10</f>
+        <v>11000</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6200</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="4">
+        <f>C11*D11+E11</f>
+        <v>8700</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9400</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F12" s="4">
+        <f>C12*D12+E12</f>
+        <v>12100</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2">
+        <v>650</v>
+      </c>
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E13" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F13" s="4">
+        <f>C13*D13+E13</f>
+        <v>4000</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F14" s="4">
+        <f>C14*D14+E14</f>
+        <v>11700</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5840</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F15" s="4">
+        <f>C15*D15+E15</f>
+        <v>20020</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6260</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F16" s="4">
+        <f>C16*D16+E16</f>
+        <v>15020</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="4">
+        <f>C17*D17+E17</f>
+        <v>5200</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5880</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F18" s="4">
+        <f>C18*D18+E18</f>
+        <v>8380</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F19" s="4">
+        <f>C19*D19+E19</f>
+        <v>5400</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="4">
+        <f>C20*D20+E20</f>
+        <v>14500</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="2">
+        <v>890</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="4">
+        <f>C21*D21+E21</f>
+        <v>5170</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F22" s="4">
+        <f>C22*D22+E22</f>
+        <v>6100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="4">
+        <f>C23*D23+E23</f>
+        <v>4700</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F25" s="4">
+        <f>C25*D25+E25</f>
+        <v>7000</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="4">
+        <f>C26*D26+E26</f>
+        <v>7500</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2">
+        <v>900</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="4">
+        <f>C27*D27+E27</f>
+        <v>3400</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8910</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="4">
+        <f>C28*D28+E28</f>
+        <v>11910</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <f>C29*D29+E29</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>8500</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C7" s="2">
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7800</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="4">
+        <f>C30*D30+E30</f>
+        <v>10800</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3600</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F31" s="4">
+        <f>C31*D31+E31</f>
+        <v>6100</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="2">
+        <v>700</v>
+      </c>
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E32" s="4">
         <v>2500</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>4900</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4570</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="F32" s="4">
+        <f>C32*D32+E32</f>
+        <v>3900</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4">
+        <f>C33*D33+E33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
         <v>2500</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>11640</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4060</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="F34" s="4">
+        <f>C34*D34+E34</f>
+        <v>9500</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4">
+        <f>C35*D35+E35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E36" s="2">
         <v>2500</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>6560</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="F36" s="4">
+        <f>C36*D36+E36</f>
+        <v>8000</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E37" s="2">
         <v>2500</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8500</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6200</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>8700</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9400</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2700</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>12100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="2">
-        <v>650</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2700</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>5300</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2700</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5840</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>20020</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>14500</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6260</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>15020</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2500</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2700</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
+      <c r="F37" s="4">
+        <f>C37*D37+E37</f>
         <v>5200</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5880</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>8380</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1450</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="2">
-        <v>12000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>14500</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2">
-        <v>890</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>5170</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3400</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2700</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>6100</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2200</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>4700</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2250</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="2">
-        <v>900</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8910</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3000</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>11910</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="4"/>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="2">
-        <v>7800</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3000</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" ref="E33:E42" si="1">B33*C33+D33</f>
-        <v>10800</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3600</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="1"/>
-        <v>6100</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="2">
-        <v>700</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="1"/>
-        <v>3900</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="2"/>
-      <c r="E36" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="1"/>
-        <v>9500</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="2"/>
+    <row r="39" spans="1:7">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="2"/>
-      <c r="E41" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4">
-        <f>SUM(D2:D42)</f>
-        <v>82000</v>
-      </c>
-      <c r="E43" s="4">
-        <f>SUM(E2:E42)</f>
-        <v>313960</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="4"/>
+        <f>SUM(E2:E39)</f>
+        <v>79500</v>
+      </c>
+      <c r="F40" s="4">
+        <f>SUM(F2:F39)</f>
+        <v>329070</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="2"/>
+    <row r="45" spans="1:7">
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
+      <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="3:5">
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="3:5">
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="3:5">
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D52" s="4"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="4"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D54" s="4"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="3:5">
       <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="3:5">
       <c r="D56" s="2"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="4"/>
+    <row r="57" spans="3:5">
       <c r="D57" s="2"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="3:5">
       <c r="D58" s="2"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5">
       <c r="D59" s="2"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5">
       <c r="D60" s="2"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5">
       <c r="D61" s="2"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5">
       <c r="D62" s="2"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5">
       <c r="D63" s="2"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5">
       <c r="D64" s="2"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:5">
       <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="3:5">
       <c r="D66" s="2"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:5">
       <c r="D67" s="2"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:5">
+      <c r="C68" s="0"/>
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="0"/>
       <c r="D69" s="2"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:5">
+      <c r="C70" s="0"/>
       <c r="D70" s="2"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C71"/>
+    <row r="71" spans="3:5">
       <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C72"/>
+    </row>
+    <row r="72" spans="3:5">
       <c r="D72" s="2"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C73"/>
+    </row>
+    <row r="73" spans="3:5">
       <c r="D73" s="2"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="3:5">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:5">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:5">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:5">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:5">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:5">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:5">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4">
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4">
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4">
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4">
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4">
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4">
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4">
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4">
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4">
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4">
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4">
       <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{C4C1A6DD-FDA4-458E-88F2-C5FEED647DEC}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{0045D1DE-0961-4626-9E75-9360EF2FFDAC}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{A9DD9EBC-095E-4DBA-8D9F-C4E68CEB34D4}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{5368AF54-5A2A-4813-AF33-39F581907125}"/>
-    <hyperlink ref="F6" r:id="rId5" location="ui_option_layer1" display="http://deal.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=709177597&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001443&amp;mCtgrNo=1002970 - ui_option_layer1" xr:uid="{FAB4F1EA-38A9-4382-87F4-54C644F62834}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{1A8013FA-D3CD-416D-983B-D7EE7F51EC2F}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{970C1286-C7B1-4523-8B63-2D6F5B40071A}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{69B0CA0C-657D-4629-9D2A-DAD20D61AEF2}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{D20A736A-F48C-41DA-BF5B-C1B4795A751A}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{F58A948C-DEE3-46C2-8BA7-75E52DF377BB}"/>
-    <hyperlink ref="F11" r:id="rId11" xr:uid="{9D4A945A-7412-48FD-BC21-3882328C5637}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{CD036C0D-030A-45F2-A74B-D338A6C5506B}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{4B2F0AC8-32E0-4B48-AF04-8AF83D5A8ADC}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{7C4420B0-A83A-43C0-A10B-444B75905984}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{0199B585-7200-4A7C-BEE7-8536E5BFACEB}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{3672076F-5326-4445-A08F-09BA3D92F22D}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{4025D013-744F-49A0-AE24-444894650536}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{C35A0EAD-D579-48A4-8233-2D88F964C8C2}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{1F8107FF-AB75-455F-9A13-D45FAF72F192}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{857D7635-8EA7-4FF9-AC73-D5A9E32BEDCD}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{E9AA865D-B2C5-458C-9B31-131B70C34242}"/>
-    <hyperlink ref="F20" r:id="rId22" xr:uid="{1B65EE58-D08A-46C1-9C71-1F3FE48010DF}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{A76CD9C4-2728-4806-BAE1-36D1D8C63675}"/>
-    <hyperlink ref="F25" r:id="rId24" location="ui_option_layer1" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=724744988&amp;trTypeCd=21&amp;trCtgrNo=585021 - ui_option_layer1" xr:uid="{40935013-A89B-45FB-8DEE-1F2540E70280}"/>
-    <hyperlink ref="F33" r:id="rId25" xr:uid="{5B677754-AD28-44E6-A774-E73184EA88E7}"/>
-    <hyperlink ref="F35" r:id="rId26" xr:uid="{C5A75D97-7864-4BEE-879F-939934BE9FD6}"/>
-    <hyperlink ref="F34" r:id="rId27" xr:uid="{9650D1FA-FF35-41B2-9B01-250AD86589FC}"/>
-    <hyperlink ref="F28" r:id="rId28" xr:uid="{14144E54-F219-4C6D-A7BF-B6925B63082E}"/>
-    <hyperlink ref="F37" r:id="rId29" xr:uid="{80118694-864E-457F-A7DD-E98E4458DE0D}"/>
-    <hyperlink ref="F39" r:id="rId30" location="ui_option_layer1" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=335315745&amp;trTypeCd=PW53&amp;trCtgrNo=585021 - ui_option_layer1" xr:uid="{1535CBE2-5594-45EB-B429-FB5A5B222A16}"/>
-    <hyperlink ref="F29" r:id="rId31" xr:uid="{20F318CF-0D9E-48C1-9B46-F8CF3A657C85}"/>
-    <hyperlink ref="F30" r:id="rId32" xr:uid="{154CF7C5-DAD1-4C79-84DB-235F87CCFE23}"/>
-    <hyperlink ref="F31" r:id="rId33" xr:uid="{5C8ABD6D-A3B0-4447-A95C-24D40AA9DCA2}"/>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId2" ref="G4"/>
+    <hyperlink r:id="rId3" ref="G5"/>
+    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink r:id="rId5" ref="G7"/>
+    <hyperlink r:id="rId6" ref="G9"/>
+    <hyperlink r:id="rId7" ref="G13"/>
+    <hyperlink r:id="rId8" ref="G14"/>
+    <hyperlink r:id="rId9" ref="G15"/>
+    <hyperlink r:id="rId10" ref="G16"/>
+    <hyperlink r:id="rId11" ref="G17"/>
+    <hyperlink r:id="rId12" ref="G18"/>
+    <hyperlink r:id="rId13" ref="G22"/>
+    <hyperlink r:id="rId14" ref="G31"/>
+    <hyperlink r:id="rId15" ref="G37"/>
+    <hyperlink r:id="rId16" ref="G28"/>
+    <hyperlink r:id="rId17" ref="G30"/>
+    <hyperlink r:id="rId18" ref="G32"/>
+    <hyperlink r:id="rId19" ref="G34"/>
+    <hyperlink r:id="rId20" ref="G36"/>
+    <hyperlink r:id="rId21" ref="G2"/>
+    <hyperlink r:id="rId22" ref="G8"/>
+    <hyperlink r:id="rId23" ref="G10"/>
+    <hyperlink r:id="rId24" ref="G11"/>
+    <hyperlink r:id="rId25" ref="G12"/>
+    <hyperlink r:id="rId26" ref="G19"/>
+    <hyperlink r:id="rId27" ref="G20"/>
+    <hyperlink r:id="rId28" ref="G21"/>
+    <hyperlink r:id="rId29" ref="G23"/>
+    <hyperlink r:id="rId30" ref="G25"/>
+    <hyperlink r:id="rId31" ref="G26"/>
+    <hyperlink r:id="rId32" ref="G27"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37623D-C728-4603-AA5A-6EA03A3727BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="13.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="19.00499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +2655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +2664,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1974,7 +2673,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +2686,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +2695,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2708,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2031,7 +2730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2043,7 +2742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2068,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2789,7 @@
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2114,7 +2813,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2125,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2138,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2848,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2159,7 +2858,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2170,8 +2869,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="21" spans="1:5">
+      <c r="B21" s="0">
         <f>SUM(B1:B20)</f>
         <v>29</v>
       </c>
@@ -2182,7 +2881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2190,7 +2889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="D23" s="2" t="s">
         <v>24</v>
       </c>
@@ -2198,30 +2897,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28">
+    <row r="28" spans="1:5">
+      <c r="D28" s="0">
         <v>4</v>
       </c>
       <c r="E28" s="2">
@@ -2230,28 +2929,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA03C31-DCDA-4286-BF96-22DC692D1CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="27.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="11.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -2271,7 +2970,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>30</v>
@@ -2290,7 +2989,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2309,7 +3008,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>47</v>
@@ -2324,7 +3023,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>43</v>
@@ -2339,7 +3038,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2350,7 +3049,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>61</v>
@@ -2371,7 +3070,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>62</v>
@@ -2388,7 +3087,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2401,7 +3100,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -2416,7 +3115,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>60</v>
@@ -2430,7 +3129,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2441,7 +3140,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2451,7 +3150,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2463,7 +3162,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>46</v>
@@ -2477,7 +3176,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
@@ -2491,7 +3190,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2501,7 +3200,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2511,7 +3210,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2521,7 +3220,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2531,58 +3230,59 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>